--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S3/S3_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S3/S3_storagemod.xlsx
@@ -14,240 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>91.10872760026548</t>
-  </si>
-  <si>
-    <t>92.71747890395373</t>
-  </si>
-  <si>
-    <t>94.326230207642</t>
-  </si>
-  <si>
-    <t>95.93498151133025</t>
-  </si>
-  <si>
-    <t>97.5437328150185</t>
-  </si>
-  <si>
-    <t>99.15248411870675</t>
-  </si>
-  <si>
-    <t>100.82217297177714</t>
-  </si>
-  <si>
-    <t>102.36998672608325</t>
-  </si>
-  <si>
-    <t>103.85686293100724</t>
-  </si>
-  <si>
-    <t>105.29498909642552</t>
-  </si>
-  <si>
-    <t>106.90374040011378</t>
-  </si>
-  <si>
-    <t>108.51249170380203</t>
-  </si>
-  <si>
-    <t>110.07736797193516</t>
-  </si>
-  <si>
-    <t>111.40499404780718</t>
-  </si>
-  <si>
-    <t>112.89999525931546</t>
-  </si>
-  <si>
-    <t>114.50874656300371</t>
-  </si>
-  <si>
-    <t>116.11749786669196</t>
-  </si>
-  <si>
-    <t>117.72624917038021</t>
-  </si>
-  <si>
-    <t>119.33500047406847</t>
-  </si>
-  <si>
-    <t>120.94375177775672</t>
-  </si>
-  <si>
-    <t>122.55250308144497</t>
-  </si>
-  <si>
-    <t>124.16125438513322</t>
-  </si>
-  <si>
-    <t>125.77000568882147</t>
-  </si>
-  <si>
-    <t>127.3202569451029</t>
-  </si>
-  <si>
-    <t>128.98750829619797</t>
-  </si>
-  <si>
-    <t>130.59625959988625</t>
-  </si>
-  <si>
-    <t>132.20501090357448</t>
-  </si>
-  <si>
-    <t>133.81376220726276</t>
-  </si>
-  <si>
-    <t>135.42251351095098</t>
-  </si>
-  <si>
-    <t>137.03126481463926</t>
-  </si>
-  <si>
-    <t>138.66926614203092</t>
-  </si>
-  <si>
-    <t>140.24876742201576</t>
-  </si>
-  <si>
-    <t>141.857518725704</t>
-  </si>
-  <si>
-    <t>143.48089504124397</t>
-  </si>
-  <si>
-    <t>144.99377126723766</t>
-  </si>
-  <si>
-    <t>146.68377263676877</t>
-  </si>
-  <si>
-    <t>148.29252394045702</t>
-  </si>
-  <si>
-    <t>149.4137748490882</t>
-  </si>
-  <si>
-    <t>13244347.34813523</t>
-  </si>
-  <si>
-    <t>13018707.835752899</t>
-  </si>
-  <si>
-    <t>12536275.52526066</t>
-  </si>
-  <si>
-    <t>12258332.954676881</t>
-  </si>
-  <si>
-    <t>11972416.53817414</t>
-  </si>
-  <si>
-    <t>11576502.379638191</t>
-  </si>
-  <si>
-    <t>10778748.55139062</t>
-  </si>
-  <si>
-    <t>9489062.488573827</t>
-  </si>
-  <si>
-    <t>7610710.134044975</t>
-  </si>
-  <si>
-    <t>5504233.097075728</t>
-  </si>
-  <si>
-    <t>4250063.517194115</t>
-  </si>
-  <si>
-    <t>3281534.248100717</t>
-  </si>
-  <si>
-    <t>2529437.2352483384</t>
-  </si>
-  <si>
-    <t>2039523.057506183</t>
-  </si>
-  <si>
-    <t>1674472.6871736788</t>
-  </si>
-  <si>
-    <t>1387467.9521248958</t>
-  </si>
-  <si>
-    <t>1115357.792942703</t>
-  </si>
-  <si>
-    <t>933318.260925672</t>
-  </si>
-  <si>
-    <t>780099.3628144653</t>
-  </si>
-  <si>
-    <t>685729.7140062507</t>
-  </si>
-  <si>
-    <t>599465.8424427274</t>
-  </si>
-  <si>
-    <t>541828.7055172588</t>
-  </si>
-  <si>
-    <t>498184.87019380607</t>
-  </si>
-  <si>
-    <t>464698.54331254726</t>
-  </si>
-  <si>
-    <t>410529.0122048419</t>
-  </si>
-  <si>
-    <t>390832.37446298526</t>
-  </si>
-  <si>
-    <t>369092.5363049667</t>
-  </si>
-  <si>
-    <t>341773.72024340497</t>
-  </si>
-  <si>
-    <t>320296.5636558244</t>
-  </si>
-  <si>
-    <t>300287.1301592006</t>
-  </si>
-  <si>
-    <t>284992.78561654297</t>
-  </si>
-  <si>
-    <t>265084.7182795113</t>
-  </si>
-  <si>
-    <t>247646.21399869327</t>
-  </si>
-  <si>
-    <t>235486.43231212613</t>
-  </si>
-  <si>
-    <t>214826.2625689215</t>
-  </si>
-  <si>
-    <t>197129.796583392</t>
-  </si>
-  <si>
-    <t>182431.3351441808</t>
-  </si>
-  <si>
-    <t>173951.9973748827</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -620,307 +392,307 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
+      <c r="A2">
+        <v>91.10872760026548</v>
+      </c>
+      <c r="B2">
+        <v>13244347.34813523</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
+      <c r="A3">
+        <v>92.71747890395373</v>
+      </c>
+      <c r="B3">
+        <v>13018707.8357529</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
+      <c r="A4">
+        <v>94.326230207642</v>
+      </c>
+      <c r="B4">
+        <v>12536275.52526066</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
+      <c r="A5">
+        <v>95.93498151133025</v>
+      </c>
+      <c r="B5">
+        <v>12258332.95467688</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
+      <c r="A6">
+        <v>97.5437328150185</v>
+      </c>
+      <c r="B6">
+        <v>11972416.53817414</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
+      <c r="A7">
+        <v>99.15248411870675</v>
+      </c>
+      <c r="B7">
+        <v>11576502.37963819</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
+      <c r="A8">
+        <v>100.8221729717771</v>
+      </c>
+      <c r="B8">
+        <v>10778748.55139062</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
+      <c r="A9">
+        <v>102.3699867260833</v>
+      </c>
+      <c r="B9">
+        <v>9489062.488573827</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
+      <c r="A10">
+        <v>103.8568629310072</v>
+      </c>
+      <c r="B10">
+        <v>7610710.134044975</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
+      <c r="A11">
+        <v>105.2949890964255</v>
+      </c>
+      <c r="B11">
+        <v>5504233.097075728</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
+      <c r="A12">
+        <v>106.9037404001138</v>
+      </c>
+      <c r="B12">
+        <v>4250063.517194115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
+      <c r="A13">
+        <v>108.512491703802</v>
+      </c>
+      <c r="B13">
+        <v>3281534.248100717</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
+      <c r="A14">
+        <v>110.0773679719352</v>
+      </c>
+      <c r="B14">
+        <v>2529437.235248338</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
+      <c r="A15">
+        <v>111.4049940478072</v>
+      </c>
+      <c r="B15">
+        <v>2039523.057506183</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
+      <c r="A16">
+        <v>112.8999952593155</v>
+      </c>
+      <c r="B16">
+        <v>1674472.687173679</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
+      <c r="A17">
+        <v>114.5087465630037</v>
+      </c>
+      <c r="B17">
+        <v>1387467.952124896</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
+      <c r="A18">
+        <v>116.117497866692</v>
+      </c>
+      <c r="B18">
+        <v>1115357.792942703</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
+      <c r="A19">
+        <v>117.7262491703802</v>
+      </c>
+      <c r="B19">
+        <v>933318.260925672</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
+      <c r="A20">
+        <v>119.3350004740685</v>
+      </c>
+      <c r="B20">
+        <v>780099.3628144653</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
+      <c r="A21">
+        <v>120.9437517777567</v>
+      </c>
+      <c r="B21">
+        <v>685729.7140062507</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
+      <c r="A22">
+        <v>122.552503081445</v>
+      </c>
+      <c r="B22">
+        <v>599465.8424427274</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
+      <c r="A23">
+        <v>124.1612543851332</v>
+      </c>
+      <c r="B23">
+        <v>541828.7055172588</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
+      <c r="A24">
+        <v>125.7700056888215</v>
+      </c>
+      <c r="B24">
+        <v>498184.8701938061</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
+      <c r="A25">
+        <v>127.3202569451029</v>
+      </c>
+      <c r="B25">
+        <v>464698.5433125473</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
+      <c r="A26">
+        <v>128.987508296198</v>
+      </c>
+      <c r="B26">
+        <v>410529.0122048419</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
+      <c r="A27">
+        <v>130.5962595998863</v>
+      </c>
+      <c r="B27">
+        <v>390832.3744629853</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
+      <c r="A28">
+        <v>132.2050109035745</v>
+      </c>
+      <c r="B28">
+        <v>369092.5363049667</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
+      <c r="A29">
+        <v>133.8137622072628</v>
+      </c>
+      <c r="B29">
+        <v>341773.720243405</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
+      <c r="A30">
+        <v>135.422513510951</v>
+      </c>
+      <c r="B30">
+        <v>320296.5636558244</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
+      <c r="A31">
+        <v>137.0312648146393</v>
+      </c>
+      <c r="B31">
+        <v>300287.1301592006</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
+      <c r="A32">
+        <v>138.6692661420309</v>
+      </c>
+      <c r="B32">
+        <v>284992.785616543</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
+      <c r="A33">
+        <v>140.2487674220158</v>
+      </c>
+      <c r="B33">
+        <v>265084.7182795113</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
+      <c r="A34">
+        <v>141.857518725704</v>
+      </c>
+      <c r="B34">
+        <v>247646.2139986933</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
+      <c r="A35">
+        <v>143.480895041244</v>
+      </c>
+      <c r="B35">
+        <v>235486.4323121261</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
+      <c r="A36">
+        <v>144.9937712672377</v>
+      </c>
+      <c r="B36">
+        <v>214826.2625689215</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
+      <c r="A37">
+        <v>146.6837726367688</v>
+      </c>
+      <c r="B37">
+        <v>197129.796583392</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
+      <c r="A38">
+        <v>148.292523940457</v>
+      </c>
+      <c r="B38">
+        <v>182431.3351441808</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
+      <c r="A39">
+        <v>149.4137748490882</v>
+      </c>
+      <c r="B39">
+        <v>173951.9973748827</v>
       </c>
     </row>
   </sheetData>
